--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -319,6 +319,26 @@
                "Set Room Temp": 23,
                "Set Upload Period(second)": 13
      }
+}
+{
+    "Dev ID": "866289037465624",
+    "Status Data": {
+        "Out Tem": 45,
+        "In Tem": 26,
+        "Front Pressure": 0.5,
+        "After Pressure": 0.5,
+        "Status": 4,
+        "air_pump 1":[1,25,36,14,55,96],//设备地址;控制标志;模式选择;L4采暖回差;L5采暖设定温度;故障代码
+        "air_pump 2":[2,25,36,14,55,96],
+        "air_pump 3":[3,25,36,14,55,96],
+     "air_pump 4":[],
+    },
+    "Dev Params": {
+        "Version": "V3.0.1",
+        "Set Out Tem": 45,
+        "Set In Tem": 23,
+        "Upload Period(second)": 10
+    }
 }
 温度传感器---&gt;服务端
 {
@@ -775,7 +795,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,13 +813,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1284,137 +1297,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1447,10 +1460,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1459,9 +1468,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2053,7 +2059,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2119,7 +2125,7 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="9"/>
@@ -2129,8 +2135,8 @@
     </row>
     <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
       <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2225,21 +2231,21 @@
       <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>32</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2256,9 +2262,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="E33" s="4" t="s">
         <v>50</v>
       </c>
@@ -2273,9 +2279,9 @@
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
@@ -2342,45 +2348,45 @@
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:2">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15"/>
+      <c r="A62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,16 +964,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>4-20ma</t>
   </si>
@@ -586,6 +586,28 @@
   </si>
   <si>
     <t>modbus_recv.fault高8位泵故障码</t>
+  </si>
+  <si>
+    <t>传感器故障</t>
+  </si>
+  <si>
+    <t>变量名:data_ai.channel_status
+有效长度（bit）:11
+data_ai.channel_status[5:0]:对应pt100 5-0个通道
+data_ai.channel_status[10:6]:对应ai压力变送器5个通道
+有效电平：1代表有故障</t>
+  </si>
+  <si>
+    <t>控制策略</t>
+  </si>
+  <si>
+    <t>分本地控制和云控制</t>
+  </si>
+  <si>
+    <t>控制算法</t>
+  </si>
+  <si>
+    <t>模糊pid，根绝error和errorc推出kp，kp与温度对应，范围10-50度</t>
   </si>
   <si>
     <t>总体架构</t>
@@ -2058,8 +2080,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2383,6 +2405,35 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="56" ht="27.6" spans="1:1">
+      <c r="A56" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" ht="69" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -2424,7 +2475,7 @@
   <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2438,20 +2489,20 @@
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>57</v>
@@ -2466,7 +2517,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
@@ -2477,7 +2528,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
@@ -2488,7 +2539,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
@@ -2504,12 +2555,12 @@
     </row>
     <row r="45" ht="22.8" spans="4:4">
       <c r="D45" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="4:4">

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>4-20ma</t>
   </si>
@@ -576,7 +576,10 @@
 系统回水温度</t>
   </si>
   <si>
-    <t>mqtt_payload_u.status[DEV_STATUS_INDEX] ：8bit di  20bit ai（传感器故障），全0无故障</t>
+    <t>mqtt_payload_u.status[DEV_STATUS_INDEX] ：16bit di  11bit ai（传感器故障），全0无故障</t>
+  </si>
+  <si>
+    <t>DI：16  DO:15 AI:5  PT100 6</t>
   </si>
   <si>
     <t>mqtt_payload_u.status[DEV_PUMP_STATUS_INDEX] 热泵故障状态，全00无故障</t>
@@ -986,16 +989,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2081,7 +2084,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C54" sqref="C57 C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2386,25 +2389,28 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" ht="27.6" spans="2:2">
+    <row r="49" ht="27.6" spans="2:3">
       <c r="B49" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:1">
@@ -2414,26 +2420,26 @@
     </row>
     <row r="57" ht="69" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -2489,20 +2495,20 @@
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
       <c r="D38" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>57</v>
@@ -2517,7 +2523,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
@@ -2528,7 +2534,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
@@ -2539,7 +2545,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
@@ -2555,12 +2561,12 @@
     </row>
     <row r="45" ht="22.8" spans="4:4">
       <c r="D45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="4:4">

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="13151" windowHeight="5112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -989,16 +989,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2083,8 +2083,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C54" sqref="C57 C54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13151" windowHeight="5112" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,6 +345,14 @@
    "Sensor ID":  "866289037465624",
    "Room Temp": {
                "Temp": "15"
+     }
+}
+}服务端---&gt;设备(时间计划)
+{
+   "Dev ID":  "866289037465624",
+   "Dev Ctrl": {
+               "Plan1":[1,45,18,14,1,19,23,5],//开机，水温45度，周一到周五，开始时间18:14，结束时间23:01
+               "Plan10":[1,45,18,14,19,23,1],
      }
 }</t>
   </si>
@@ -1452,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1482,6 +1490,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2147,7 +2159,7 @@
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2160,8 +2172,8 @@
     </row>
     <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
       <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +2186,7 @@
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2256,21 +2268,21 @@
       <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="14">
         <v>32</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2287,9 +2299,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="E33" s="4" t="s">
         <v>50</v>
       </c>
@@ -2304,9 +2316,9 @@
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
@@ -2373,24 +2385,24 @@
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:3">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2398,18 +2410,18 @@
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2443,7 +2455,7 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="数据协议" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="需求" sheetId="6" r:id="rId4"/>
+    <sheet name="数码管" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>4-20ma</t>
   </si>
@@ -816,6 +817,33 @@
     <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
 例如{v1.0.0,33,31.106.169.131/firmware/}
 2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2123,7 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2493,7 +2521,7 @@
   <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2595,4 +2623,52 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,8 +352,8 @@
 {
    "Dev ID":  "866289037465624",
    "Dev Ctrl": {
-               "Plan1":[1,45,18,14,1,19,23,5],//开机，水温45度，周一到周五，开始时间18:14，结束时间23:01
-               "Plan10":[1,45,18,14,19,23,1],
+               "Plan1": [1,45,18,14,1,19,23,5，1],//开机，水温45度，周一到周五，开始时间18:14，结束时间23:01，使能任务
+               "Plan10": [1,45,18,14,19,23,1,1],
      }
 }</t>
   </si>
@@ -2123,7 +2123,7 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2630,8 +2630,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>4-20ma</t>
   </si>
@@ -817,6 +817,9 @@
     <t>1、第一次get请求版本号，返回值：{V1.0.0，seq数量，连接地址}，
 例如{v1.0.0,33,31.106.169.131/firmware/}
 2、接下来控制板主动get请求读固件数据，返回值：1024个有效数据(不满1024为最后实际数据)+2crc</t>
+  </si>
+  <si>
+    <t>固件以现场名一样，中间有空格，例如现场A V1.0</t>
   </si>
   <si>
     <t>A</t>
@@ -2123,8 +2126,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2521,8 +2524,8 @@
   <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2610,7 +2613,9 @@
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="4"/>
@@ -2638,33 +2643,33 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>4-20ma</t>
   </si>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>温度传感器发布消息</t>
+  </si>
+  <si>
+    <t>dev_sub_ctrl_all</t>
+  </si>
+  <si>
+    <t>控制所有设备</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>服务器下发时间戳</t>
   </si>
   <si>
     <t xml:space="preserve">故障状态定义
@@ -1028,16 +1040,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2126,8 +2138,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2415,74 +2427,90 @@
         <v>68</v>
       </c>
     </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="47" ht="27.6" spans="1:2">
       <c r="A47" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B47" s="12"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:3">
       <c r="B49" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="69" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -2524,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -2538,20 +2566,20 @@
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
       <c r="D38" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>57</v>
@@ -2566,7 +2594,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
@@ -2577,7 +2605,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
@@ -2588,7 +2616,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
@@ -2604,17 +2632,17 @@
     </row>
     <row r="45" ht="22.8" spans="4:4">
       <c r="D45" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:4">
@@ -2643,33 +2671,33 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="数据协议" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="需求" sheetId="6" r:id="rId4"/>
-    <sheet name="数码管" sheetId="7" r:id="rId5"/>
+    <sheet name="机组协议" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="202">
   <si>
     <t>4-20ma</t>
   </si>
@@ -834,31 +836,324 @@
     <t>固件以现场名一样，中间有空格，例如现场A V1.0</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>S1</t>
+    <t>机组信息数据格式:
+"air pump_status1": [机组地址，数据1，数据2.....数据n]
+"air pump_status2": [机组地址，数据n+1，数据2.....数据k]
+"air pump_status3": [机组地址，数据k+1，数据2.....数据m]
+"air pump_status4": [机组地址，数据m+1，数据2.....数据p]
+"air pump_status5": [机组地址，数据p+1，数据2.....数据t]</t>
+  </si>
+  <si>
+    <t>地址（16进制）</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>数据按照从数据1到数据t与地址一一对应</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>寄存器地址内容参考机组文档</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>5,30,20,25,20,5,115,100,92,85,48,100,90,65521,25,65511,50,0</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>01BD</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>055f</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1798,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,6 +2048,95 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2804160"/>
+          <a:ext cx="4579620" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4030980"/>
+          <a:ext cx="4899660" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2138,383 +2526,383 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.0833333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="72.1666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="59.3333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.5833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.5833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.0833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="72.1666666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5833333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="9" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" ht="365" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" ht="27.6" spans="4:4">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="16">
         <v>32</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="E33" s="4" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="E33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="E34" s="4" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="E34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:3">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" ht="69" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2565,91 +2953,91 @@
   </cols>
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" ht="41.4" spans="4:6">
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" ht="22.8" spans="4:4">
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="4"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="4"/>
+      <c r="D49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2661,43 +3049,2059 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:C81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="60.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="82.8" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="B81" sqref="B1:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>65521</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>65511</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:EN12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="72.6666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>65</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>115</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>92</v>
+      </c>
+      <c r="J2">
+        <v>85</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>90</v>
+      </c>
+      <c r="N2">
+        <v>65521</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>65511</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>48</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:144">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7">
+        <v>80</v>
+      </c>
+      <c r="V7" t="s">
+        <v>186</v>
+      </c>
+      <c r="W7">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC7">
+        <v>80</v>
+      </c>
+      <c r="AD7">
+        <v>80</v>
+      </c>
+      <c r="AE7">
+        <v>80</v>
+      </c>
+      <c r="AF7">
+        <v>80</v>
+      </c>
+      <c r="AG7">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI7">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK7">
+        <v>80</v>
+      </c>
+      <c r="AL7">
+        <v>18</v>
+      </c>
+      <c r="AM7">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>80</v>
+      </c>
+      <c r="AO7">
+        <v>80</v>
+      </c>
+      <c r="AP7">
+        <v>80</v>
+      </c>
+      <c r="AQ7">
+        <v>80</v>
+      </c>
+      <c r="AR7">
+        <v>80</v>
+      </c>
+      <c r="AS7">
+        <v>80</v>
+      </c>
+      <c r="AT7">
+        <v>80</v>
+      </c>
+      <c r="AU7">
+        <v>80</v>
+      </c>
+      <c r="AV7">
+        <v>80</v>
+      </c>
+      <c r="AW7">
+        <v>19</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY7">
+        <v>40</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA7">
+        <v>43</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>35</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>33</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>3</v>
+      </c>
+      <c r="CJ7">
+        <v>2</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>196</v>
+      </c>
+      <c r="CL7">
+        <v>2</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN7">
+        <v>2</v>
+      </c>
+      <c r="CO7">
+        <v>2</v>
+      </c>
+      <c r="CP7">
+        <v>2</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CR7">
+        <v>2</v>
+      </c>
+      <c r="CS7">
+        <v>2</v>
+      </c>
+      <c r="CT7">
+        <v>2</v>
+      </c>
+      <c r="CU7">
+        <v>2</v>
+      </c>
+      <c r="CV7">
+        <v>2</v>
+      </c>
+      <c r="CW7">
+        <v>2</v>
+      </c>
+      <c r="CX7">
+        <v>2</v>
+      </c>
+      <c r="CY7">
+        <v>29</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DB7">
+        <v>37</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE7">
+        <v>20</v>
+      </c>
+      <c r="DF7">
+        <v>20</v>
+      </c>
+      <c r="DG7">
+        <v>20</v>
+      </c>
+      <c r="DH7">
+        <v>20</v>
+      </c>
+      <c r="DI7">
+        <v>20</v>
+      </c>
+      <c r="DJ7">
+        <v>20</v>
+      </c>
+      <c r="DK7">
+        <v>20</v>
+      </c>
+      <c r="DL7">
+        <v>20</v>
+      </c>
+      <c r="DM7">
+        <v>20</v>
+      </c>
+      <c r="DN7">
+        <v>20</v>
+      </c>
+      <c r="DO7">
+        <v>20</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>199</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>200</v>
+      </c>
+      <c r="DR7">
+        <v>2</v>
+      </c>
+      <c r="DS7">
+        <v>2</v>
+      </c>
+      <c r="DT7">
+        <v>2</v>
+      </c>
+      <c r="DU7">
+        <v>2</v>
+      </c>
+      <c r="DV7">
+        <v>2</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DX7">
+        <v>2</v>
+      </c>
+      <c r="DY7">
+        <v>2</v>
+      </c>
+      <c r="DZ7">
+        <v>2</v>
+      </c>
+      <c r="EA7">
+        <v>2</v>
+      </c>
+      <c r="EB7">
+        <v>2</v>
+      </c>
+      <c r="EC7">
+        <v>3</v>
+      </c>
+      <c r="ED7">
+        <v>5</v>
+      </c>
+      <c r="EE7">
+        <v>2</v>
+      </c>
+      <c r="EF7">
+        <v>5</v>
+      </c>
+      <c r="EG7">
+        <v>2</v>
+      </c>
+      <c r="EH7">
+        <v>2</v>
+      </c>
+      <c r="EI7">
+        <v>2</v>
+      </c>
+      <c r="EJ7">
+        <v>2</v>
+      </c>
+      <c r="EK7">
+        <v>2</v>
+      </c>
+      <c r="EL7">
+        <v>3</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>201</v>
+      </c>
+      <c r="EN7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <v>65521</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>65511</v>
+      </c>
+      <c r="Q9">
+        <v>50</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>48</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="4"/>
+    <workbookView windowWidth="11231" windowHeight="5675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="需求" sheetId="6" r:id="rId4"/>
     <sheet name="机组协议" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
+    <sheet name="端口映射" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
   <si>
     <t>4-20ma</t>
   </si>
@@ -1099,61 +1099,328 @@
     <t>数据</t>
   </si>
   <si>
-    <t>5,30,20,25,20,5,115,100,92,85,48,100,90,65521,25,65511,50,0</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>01BD</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>055f</t>
+    <t>端口号</t>
+  </si>
+  <si>
+    <t>PCB映射</t>
+  </si>
+  <si>
+    <t>DI9</t>
+  </si>
+  <si>
+    <t>DI_8</t>
+  </si>
+  <si>
+    <t>DI10</t>
+  </si>
+  <si>
+    <t>DI_9</t>
+  </si>
+  <si>
+    <t>DI11</t>
+  </si>
+  <si>
+    <t>DI_10</t>
+  </si>
+  <si>
+    <t>DI12</t>
+  </si>
+  <si>
+    <t>DI_11</t>
+  </si>
+  <si>
+    <t>DI13</t>
+  </si>
+  <si>
+    <t>DI_12</t>
+  </si>
+  <si>
+    <t>DI14</t>
+  </si>
+  <si>
+    <t>DI_13</t>
+  </si>
+  <si>
+    <t>DI15</t>
+  </si>
+  <si>
+    <t>DI_14</t>
+  </si>
+  <si>
+    <t>DI16</t>
+  </si>
+  <si>
+    <t>DI_15</t>
+  </si>
+  <si>
+    <t>DI1</t>
+  </si>
+  <si>
+    <t>DI_3</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>DI_2</t>
+  </si>
+  <si>
+    <t>DI3</t>
+  </si>
+  <si>
+    <t>DI_1</t>
+  </si>
+  <si>
+    <t>DI4</t>
+  </si>
+  <si>
+    <t>DI_0</t>
+  </si>
+  <si>
+    <t>DI5</t>
+  </si>
+  <si>
+    <t>DI_7</t>
+  </si>
+  <si>
+    <t>DI6</t>
+  </si>
+  <si>
+    <t>DI_6</t>
+  </si>
+  <si>
+    <t>DI7</t>
+  </si>
+  <si>
+    <t>DI_5</t>
+  </si>
+  <si>
+    <t>DI8</t>
+  </si>
+  <si>
+    <t>DI_4</t>
+  </si>
+  <si>
+    <t>AI1</t>
+  </si>
+  <si>
+    <t>AI4</t>
+  </si>
+  <si>
+    <t>ain12</t>
+  </si>
+  <si>
+    <t>AI2</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>ain13</t>
+  </si>
+  <si>
+    <t>ain14</t>
+  </si>
+  <si>
+    <t>ain15</t>
+  </si>
+  <si>
+    <t>AI5</t>
+  </si>
+  <si>
+    <t>AI0</t>
+  </si>
+  <si>
+    <t>ain11</t>
+  </si>
+  <si>
+    <t>PT1A</t>
+  </si>
+  <si>
+    <t>PT100_B1</t>
+  </si>
+  <si>
+    <t>ain10</t>
+  </si>
+  <si>
+    <t>PT2A</t>
+  </si>
+  <si>
+    <t>PT100_B6</t>
+  </si>
+  <si>
+    <t>ain8</t>
+  </si>
+  <si>
+    <t>PT3A</t>
+  </si>
+  <si>
+    <t>PT100_B5</t>
+  </si>
+  <si>
+    <t>ain6</t>
+  </si>
+  <si>
+    <t>PT4A</t>
+  </si>
+  <si>
+    <t>PT100_B2</t>
+  </si>
+  <si>
+    <t>ain4</t>
+  </si>
+  <si>
+    <t>PT5A</t>
+  </si>
+  <si>
+    <t>PT100_B4</t>
+  </si>
+  <si>
+    <t>ain2</t>
+  </si>
+  <si>
+    <t>PT6A</t>
+  </si>
+  <si>
+    <t>PT100_B3</t>
+  </si>
+  <si>
+    <t>ain0</t>
+  </si>
+  <si>
+    <t>DQ1</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>DO_ctrl_14</t>
+  </si>
+  <si>
+    <t>DQ2</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>DO_ctrl_13</t>
+  </si>
+  <si>
+    <t>DQ3</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>DO_ctrl_12</t>
+  </si>
+  <si>
+    <t>DQ4</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>DO_ctrl_11</t>
+  </si>
+  <si>
+    <t>DQ5</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>DO_ctrl_10</t>
+  </si>
+  <si>
+    <t>DQ6</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>DO_ctrl_9</t>
+  </si>
+  <si>
+    <t>DQ7</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>DO_ctrl_8</t>
+  </si>
+  <si>
+    <t>DQ8</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>DO_ctrl_7</t>
+  </si>
+  <si>
+    <t>DQ9</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>DO_ctrl_6</t>
+  </si>
+  <si>
+    <t>DQ10</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>DO_ctrl_5</t>
+  </si>
+  <si>
+    <t>DQ11</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>DO_ctrl_4</t>
+  </si>
+  <si>
+    <t>DQ12</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>DO_ctrl_3</t>
+  </si>
+  <si>
+    <t>DQ13</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>DO_ctrl_2</t>
+  </si>
+  <si>
+    <t>DQ14</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>DO_ctrl_1</t>
+  </si>
+  <si>
+    <t>DQ15</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>DO_ctrl_0</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1813,9 +2080,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2526,8 +2790,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2543,13 +2807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2576,35 +2840,35 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="8" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" s="7" customFormat="1" ht="27.6" spans="1:8">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="27.6" spans="1:8">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2617,7 +2881,7 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2690,49 +2954,49 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>32</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="E33" s="6" t="s">
         <v>50</v>
       </c>
@@ -2747,9 +3011,9 @@
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="E34" s="6" t="s">
         <v>54</v>
       </c>
@@ -2832,24 +3096,24 @@
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:3">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2857,23 +3121,23 @@
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2902,7 +3166,7 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2961,7 +3225,7 @@
       <c r="D32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3024,7 +3288,7 @@
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3051,7 +3315,7 @@
   <sheetPr/>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3065,7 +3329,6 @@
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B1"/>
       <c r="C1" t="s">
         <v>98</v>
       </c>
@@ -3488,8 +3751,8 @@
   <sheetPr/>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="B1:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -4154,954 +4417,470 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EN12"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="72.6666666666667"/>
+    <col min="1" max="1" width="15.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1">
-        <v>65</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="D1">
-        <v>50</v>
-      </c>
-      <c r="E1">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>115</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>92</v>
-      </c>
-      <c r="J2">
-        <v>85</v>
-      </c>
-      <c r="K2">
-        <v>48</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>90</v>
-      </c>
-      <c r="N2">
-        <v>65521</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>65511</v>
-      </c>
-      <c r="Q2">
-        <v>50</v>
-      </c>
-      <c r="R2">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>38</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <v>11</v>
-      </c>
-      <c r="R3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>48</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:144">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7">
-        <v>80</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>187</v>
-      </c>
-      <c r="R7">
-        <v>80</v>
-      </c>
-      <c r="S7">
-        <v>80</v>
-      </c>
-      <c r="T7" t="s">
-        <v>188</v>
-      </c>
-      <c r="U7">
-        <v>80</v>
-      </c>
-      <c r="V7" t="s">
-        <v>186</v>
-      </c>
-      <c r="W7">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC7">
-        <v>80</v>
-      </c>
-      <c r="AD7">
-        <v>80</v>
-      </c>
-      <c r="AE7">
-        <v>80</v>
-      </c>
-      <c r="AF7">
-        <v>80</v>
-      </c>
-      <c r="AG7">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI7">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK7">
-        <v>80</v>
-      </c>
-      <c r="AL7">
-        <v>18</v>
-      </c>
-      <c r="AM7">
-        <v>80</v>
-      </c>
-      <c r="AN7">
-        <v>80</v>
-      </c>
-      <c r="AO7">
-        <v>80</v>
-      </c>
-      <c r="AP7">
-        <v>80</v>
-      </c>
-      <c r="AQ7">
-        <v>80</v>
-      </c>
-      <c r="AR7">
-        <v>80</v>
-      </c>
-      <c r="AS7">
-        <v>80</v>
-      </c>
-      <c r="AT7">
-        <v>80</v>
-      </c>
-      <c r="AU7">
-        <v>80</v>
-      </c>
-      <c r="AV7">
-        <v>80</v>
-      </c>
-      <c r="AW7">
-        <v>19</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY7">
-        <v>40</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA7">
-        <v>43</v>
-      </c>
-      <c r="BB7">
-        <v>7</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>35</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>33</v>
-      </c>
-      <c r="BT7">
-        <v>1</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV7">
-        <v>1</v>
-      </c>
-      <c r="BW7">
-        <v>1</v>
-      </c>
-      <c r="BX7">
-        <v>1</v>
-      </c>
-      <c r="BY7">
-        <v>1</v>
-      </c>
-      <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>1</v>
-      </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>1</v>
-      </c>
-      <c r="CD7">
-        <v>1</v>
-      </c>
-      <c r="CE7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7">
-        <v>1</v>
-      </c>
-      <c r="CH7">
-        <v>1</v>
-      </c>
-      <c r="CI7">
-        <v>3</v>
-      </c>
-      <c r="CJ7">
-        <v>2</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>196</v>
-      </c>
-      <c r="CL7">
-        <v>2</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>197</v>
-      </c>
-      <c r="CN7">
-        <v>2</v>
-      </c>
-      <c r="CO7">
-        <v>2</v>
-      </c>
-      <c r="CP7">
-        <v>2</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>197</v>
-      </c>
-      <c r="CR7">
-        <v>2</v>
-      </c>
-      <c r="CS7">
-        <v>2</v>
-      </c>
-      <c r="CT7">
-        <v>2</v>
-      </c>
-      <c r="CU7">
-        <v>2</v>
-      </c>
-      <c r="CV7">
-        <v>2</v>
-      </c>
-      <c r="CW7">
-        <v>2</v>
-      </c>
-      <c r="CX7">
-        <v>2</v>
-      </c>
-      <c r="CY7">
-        <v>29</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA7">
-        <v>1</v>
-      </c>
-      <c r="DB7">
-        <v>37</v>
-      </c>
-      <c r="DC7">
-        <v>1</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>198</v>
-      </c>
-      <c r="DE7">
-        <v>20</v>
-      </c>
-      <c r="DF7">
-        <v>20</v>
-      </c>
-      <c r="DG7">
-        <v>20</v>
-      </c>
-      <c r="DH7">
-        <v>20</v>
-      </c>
-      <c r="DI7">
-        <v>20</v>
-      </c>
-      <c r="DJ7">
-        <v>20</v>
-      </c>
-      <c r="DK7">
-        <v>20</v>
-      </c>
-      <c r="DL7">
-        <v>20</v>
-      </c>
-      <c r="DM7">
-        <v>20</v>
-      </c>
-      <c r="DN7">
-        <v>20</v>
-      </c>
-      <c r="DO7">
-        <v>20</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>199</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>200</v>
-      </c>
-      <c r="DR7">
-        <v>2</v>
-      </c>
-      <c r="DS7">
-        <v>2</v>
-      </c>
-      <c r="DT7">
-        <v>2</v>
-      </c>
-      <c r="DU7">
-        <v>2</v>
-      </c>
-      <c r="DV7">
-        <v>2</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>139</v>
-      </c>
-      <c r="DX7">
-        <v>2</v>
-      </c>
-      <c r="DY7">
-        <v>2</v>
-      </c>
-      <c r="DZ7">
-        <v>2</v>
-      </c>
-      <c r="EA7">
-        <v>2</v>
-      </c>
-      <c r="EB7">
-        <v>2</v>
-      </c>
-      <c r="EC7">
-        <v>3</v>
-      </c>
-      <c r="ED7">
-        <v>5</v>
-      </c>
-      <c r="EE7">
-        <v>2</v>
-      </c>
-      <c r="EF7">
-        <v>5</v>
-      </c>
-      <c r="EG7">
-        <v>2</v>
-      </c>
-      <c r="EH7">
-        <v>2</v>
-      </c>
-      <c r="EI7">
-        <v>2</v>
-      </c>
-      <c r="EJ7">
-        <v>2</v>
-      </c>
-      <c r="EK7">
-        <v>2</v>
-      </c>
-      <c r="EL7">
-        <v>3</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>201</v>
-      </c>
-      <c r="EN7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>115</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>92</v>
-      </c>
-      <c r="J9">
-        <v>85</v>
-      </c>
-      <c r="K9">
-        <v>48</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>90</v>
-      </c>
-      <c r="N9">
-        <v>65521</v>
-      </c>
-      <c r="O9">
-        <v>25</v>
-      </c>
-      <c r="P9">
-        <v>65511</v>
-      </c>
-      <c r="Q9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>112</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>38</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>48</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>69</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>69</v>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11231" windowHeight="5675" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="310">
   <si>
     <t>4-20ma</t>
   </si>
@@ -1099,6 +1099,63 @@
     <t>数据</t>
   </si>
   <si>
+    <t>status2</t>
+  </si>
+  <si>
+    <t>status1</t>
+  </si>
+  <si>
+    <t>status3</t>
+  </si>
+  <si>
+    <t>status4</t>
+  </si>
+  <si>
+    <t>status5</t>
+  </si>
+  <si>
+    <t>status6</t>
+  </si>
+  <si>
+    <t>status7</t>
+  </si>
+  <si>
+    <t>status8</t>
+  </si>
+  <si>
+    <t>status9</t>
+  </si>
+  <si>
+    <t>status10</t>
+  </si>
+  <si>
+    <t>status11</t>
+  </si>
+  <si>
+    <t>status12</t>
+  </si>
+  <si>
+    <t>status13</t>
+  </si>
+  <si>
+    <t>status14</t>
+  </si>
+  <si>
+    <t>status15</t>
+  </si>
+  <si>
+    <t>status16</t>
+  </si>
+  <si>
+    <t>status17</t>
+  </si>
+  <si>
+    <t>status18</t>
+  </si>
+  <si>
+    <t>status19</t>
+  </si>
+  <si>
     <t>端口号</t>
   </si>
   <si>
@@ -1437,6 +1494,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1609,20 +1673,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1935,55 +1998,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1998,97 +2058,103 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -2099,14 +2165,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2796,377 +2862,377 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.0833333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="72.1666666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="59.3333333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.5833333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.0833333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="72.1666666666667" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.5833333333333" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="11" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="27.6" spans="1:8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="6" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A12" s="9"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="365" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" ht="27.6" spans="4:4">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="18">
         <v>32</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="E33" s="6" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="E33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="E34" s="6" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="E34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" ht="236" customHeight="1" spans="1:3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" ht="27.6" spans="2:3">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:1">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" ht="69" spans="1:2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="13"/>
+      <c r="A62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3217,91 +3283,91 @@
   </cols>
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" ht="41.4" spans="4:6">
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" ht="22.8" spans="4:4">
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="6"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="6"/>
+      <c r="D49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3326,7 +3392,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="82.8" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C1" t="s">
@@ -3749,13 +3815,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
   </cols>
@@ -3768,644 +3834,1118 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>115</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>92</v>
+      </c>
+      <c r="T3">
+        <v>85</v>
+      </c>
+      <c r="U3">
+        <v>48</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>90</v>
+      </c>
+      <c r="X3">
+        <v>-15</v>
+      </c>
+      <c r="Y3">
+        <v>25</v>
+      </c>
+      <c r="Z3">
+        <v>-25</v>
+      </c>
+      <c r="AA3">
+        <v>50</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>-2</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>35</v>
+      </c>
+      <c r="X4">
+        <v>-4</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>-2</v>
+      </c>
+      <c r="M5">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>-3</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>48</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>200</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>46</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>100</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <v>65521</v>
+        <v>-15</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>65511</v>
-      </c>
-      <c r="B25" t="s">
+        <v>-25</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="B42" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B48" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>0</v>
       </c>
       <c r="B54" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>0</v>
       </c>
       <c r="B55" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>0</v>
       </c>
       <c r="B60" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>48</v>
       </c>
       <c r="B62" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>0</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>0</v>
       </c>
       <c r="B67" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>200</v>
       </c>
       <c r="B68" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>0</v>
       </c>
       <c r="B71" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>0</v>
       </c>
       <c r="B72" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>0</v>
       </c>
       <c r="B80" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
         <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4430,149 +4970,149 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -4580,13 +5120,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -4594,13 +5134,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4608,13 +5148,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4622,13 +5162,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4636,13 +5176,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -4650,13 +5190,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -4664,13 +5204,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4678,13 +5218,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4692,13 +5232,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4706,13 +5246,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4720,167 +5260,167 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3817,8 +3817,8 @@
   <sheetPr/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -4959,7 +4959,7 @@
   <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>

--- a/hotter/docs/协议.xlsx
+++ b/hotter/docs/协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="312">
   <si>
     <t>4-20ma</t>
   </si>
@@ -634,6 +634,41 @@
   </si>
   <si>
     <t>模糊pid，根绝error和errorc推出kp，kp与温度对应，范围10-50度</t>
+  </si>
+  <si>
+    <t>{
+    "devid": "864536074095033",
+    "sensorSta": {
+        "aiSta": [
+            29.7,
+            110,
+            110,
+            110,
+            110,
+            110
+        ],
+        "diSta": 0,
+        "doSta": 0
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"devid":"864536074095033",
+"emeterData":[{
+"addr":0,
+"data":[0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000]},{
+"addr":0,
+"data":[0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000]},{
+"addr":0,
+"data":[0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000]},{
+"addr":0,
+"data":[0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000]},{
+"addr":0,
+"data":[0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000,0.000]}
+]
+}
+</t>
   </si>
   <si>
     <t>总体架构</t>
@@ -2854,10 +2889,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B90" sqref="B85:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -3233,6 +3268,14 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="16"/>
+    </row>
+    <row r="80" ht="289.8" spans="2:3">
+      <c r="B80" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3284,20 +3327,20 @@
   <sheetData>
     <row r="7" ht="22.8" spans="4:4">
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="409.5" customHeight="1" spans="4:9">
       <c r="D32" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" ht="22.8" spans="4:6">
       <c r="D38" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>57</v>
@@ -3312,7 +3355,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="4:6">
@@ -3323,7 +3366,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="4:6">
@@ -3334,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="4:6">
@@ -3350,17 +3393,17 @@
     </row>
     <row r="45" ht="22.8" spans="4:4">
       <c r="D45" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="4:4">
@@ -3393,416 +3436,416 @@
   <sheetData>
     <row r="1" ht="82.8" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3828,10 +3871,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3839,13 +3882,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3853,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3921,10 +3964,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J4">
         <v>8</v>
@@ -3986,10 +4029,10 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -4051,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J6">
         <v>48</v>
@@ -4116,10 +4159,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4127,10 +4170,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4138,10 +4181,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4149,13 +4192,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4163,10 +4206,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4174,10 +4217,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4185,10 +4228,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4196,10 +4239,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4207,10 +4250,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4218,10 +4261,10 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4229,10 +4272,10 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4240,10 +4283,10 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4251,10 +4294,10 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4262,10 +4305,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4273,10 +4316,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4284,10 +4327,10 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4295,10 +4338,10 @@
         <v>-15</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4306,10 +4349,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4317,10 +4360,10 @@
         <v>-25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4328,10 +4371,10 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4339,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4350,13 +4393,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4364,10 +4407,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4375,10 +4418,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4386,10 +4429,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4397,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4408,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4419,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4430,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4441,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4452,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4463,10 +4506,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4474,10 +4517,10 @@
         <v>-2</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4485,10 +4528,10 @@
         <v>-1</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4496,10 +4539,10 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4507,10 +4550,10 @@
         <v>-4</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4518,10 +4561,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4529,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4540,10 +4583,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4551,13 +4594,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4565,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4576,10 +4619,10 @@
         <v>-2</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4587,10 +4630,10 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4598,10 +4641,10 @@
         <v>-3</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4609,10 +4652,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4620,10 +4663,10 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4631,10 +4674,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4642,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4653,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4664,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4675,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4686,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4697,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4708,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4719,10 +4762,10 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4730,10 +4773,10 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4741,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4752,13 +4795,13 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4766,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4777,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4788,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4799,10 +4842,10 @@
         <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4810,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4821,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4832,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4843,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4854,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4865,10 +4908,10 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4876,10 +4919,10 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4887,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4898,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4909,10 +4952,10 @@
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4920,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4931,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4942,10 +4985,10 @@
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4959,7 +5002,7 @@
   <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -4970,149 +5013,149 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5120,13 +5163,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -5134,13 +5177,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -5148,13 +5191,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -5162,13 +5205,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5176,13 +5219,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -5190,13 +5233,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -5204,13 +5247,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -5218,13 +5261,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -5232,13 +5275,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5246,13 +5289,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5260,167 +5303,167 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
